--- a/Question_Sets/Cognitive ability/Attention to Detail (Textual).xlsx
+++ b/Question_Sets/Cognitive ability/Attention to Detail (Textual).xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Compare the address on file with the address in the yearbook as shown below. How many words, numbers, spaces, and punctuation marks are different in the two versions? Note: a unified sequence of digits without spaces or dashes between them counts as one number.', 'ques_type': 2, 'options': ['There are 0 differences in the addresses.  ', 'There are 2 differences in the addresses.  ', 'There are 3 differences in the addresses.  ', 'There are 4 differences in the addresses.  '], 'score': 'There are 3 differences in the addresses.'}, {'title': 'Madhu saw Jo and Bryn, who are both taller than 6 feet, playing basketball while wearing white shoes. Jo invited their friend Carey, who weighs 193 pounds and is about 5½ feet tall, to join them for tennis the next morning. After playing tennis, all had to finish homework that was due the next day, a Tuesday.  On which day did Madhu see Jo and Bryn playing basketball while wearing white shoes?', 'ques_type': 2, 'options': ['Saturday', 'Sunday', 'Monday', 'Tuesday'], 'score': 'Sunday'}, {'title': 'A student copied Statement A into their notebook (as shown in Statement B below). How many words has the student copied incorrectly?Statement A: The sophomore year electives were parapsychology, physics, astronomy, medieval mathematics, alchemy, and divining, but most students voted those as uninteresting choices.Statement B: The sophomore year electives were parapsychology, psychics, astrology, medieval mathematics, alchemy, and divining, but most students vetoed those as uninteresting choices.', 'ques_type': 2, 'options': ['0 words', '1 word', '2 words', '3 words'], 'score': '3 words'}, {'title': 'Lane and Alex met at a specified point and started hiking in opposite directions. Lane walked straight West for 5 miles, turned left and walked for two miles, and then turned right and walked for two more miles. They stopped at a scenic viewpoint to catch their breath. Alex kept walking straight for 7 miles and turned back. They stopped to take a rest midway. Both Lane and Alex were facing in the direction of the setting sun when they stopped for breaks.Is the above description consistent?', 'ques_type': 2, 'options': ['No', 'Yes'], 'score': 'Yes'}]</t>
+    <t>questions = [
+    {
+        "title": "Compare the address on file with the address in the yearbook as shown below. How many words, numbers, spaces, and punctuation marks are different in the two versions? Note: a unified sequence of digits without spaces or dashes between them counts as one number.",
+        "ques_type": 2,
+        "options": [
+            "There are 0 differences in the addresses.  ",
+            "There are 2 differences in the addresses.  ",
+            "There are 3 differences in the addresses.  ",
+            "There are 4 differences in the addresses.  "
+        ],
+        "score": "There are 3 differences in the addresses."
+    },
+    {
+        "title": "Madhu saw Jo and Bryn, who are both taller than 6 feet, playing basketball while wearing white shoes. Jo invited their friend Carey, who weighs 193 pounds and is about 5\u00bd feet tall, to join them for tennis the next morning. After playing tennis, all had to finish homework that was due the next day, a Tuesday.  On which day did Madhu see Jo and Bryn playing basketball while wearing white shoes?",
+        "ques_type": 2,
+        "options": [
+            "Saturday",
+            "Sunday",
+            "Monday",
+            "Tuesday"
+        ],
+        "score": "Sunday"
+    },
+    {
+        "title": "A student copied Statement A into their notebook (as shown in Statement B below). How many words has the student copied incorrectly?Statement A: The sophomore year electives were parapsychology, physics, astronomy, medieval mathematics, alchemy, and divining, but most students voted those as uninteresting choices.Statement B: The sophomore year electives were parapsychology, psychics, astrology, medieval mathematics, alchemy, and divining, but most students vetoed those as uninteresting choices.",
+        "ques_type": 2,
+        "options": [
+            "0 words",
+            "1 word",
+            "2 words",
+            "3 words"
+        ],
+        "score": "3 words"
+    },
+    {
+        "title": "Lane and Alex met at a specified point and started hiking in opposite directions. Lane walked straight West for 5 miles, turned left and walked for two miles, and then turned right and walked for two more miles. They stopped at a scenic viewpoint to catch their breath. Alex kept walking straight for 7 miles and turned back. They stopped to take a rest midway. Both Lane and Alex were facing in the direction of the setting sun when they stopped for breaks.Is the above description consistent?",
+        "ques_type": 2,
+        "options": [
+            "No",
+            "Yes"
+        ],
+        "score": "Yes"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
